--- a/ドキュメント/リソース予約管理.xlsx
+++ b/ドキュメント/リソース予約管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshifumi_nishi\work\DeviceUsageTracker\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB15B9-171F-4564-99AD-048279EC9593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05F3E42-7A6A-49B9-8637-0C1570DB7173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -2083,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2626,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD167220-341B-46D0-AE11-227A8EDF5456}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3499,11 +3499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186C479C-5F92-4AA8-B379-2EDE196CB82B}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
